--- a/SC Store - automation framework/src/testData/testData.xlsx
+++ b/SC Store - automation framework/src/testData/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -397,18 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="1" max="3" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,10 +427,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -432,7 +443,10 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/SC Store - automation framework/src/testData/testData.xlsx
+++ b/SC Store - automation framework/src/testData/testData.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -24,28 +24,58 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Apache_POI_TC</t>
-  </si>
-  <si>
     <t>sa_testid</t>
   </si>
   <si>
     <t>Steelcase1</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>IDCore</t>
+  </si>
+  <si>
+    <t>Login_Password</t>
+  </si>
+  <si>
+    <t>Registration_Password</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Run/No Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Framework_001</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -96,17 +126,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -403,54 +467,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>64460</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
